--- a/Client/Assets/Excel/_Formula.xlsx
+++ b/Client/Assets/Excel/_Formula.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Perforce\Excel\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hub\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76D107B7-E886-440B-BFAA-6D5BF5BDBC98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5135070-FECC-4A93-9BB4-F0F30A668FAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{BE0BAF33-1134-4A93-B729-040A5F21B430}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{BE0BAF33-1134-4A93-B729-040A5F21B430}"/>
   </bookViews>
   <sheets>
     <sheet name="Hero" sheetId="1" r:id="rId1"/>
@@ -617,10 +617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F063EE88-CECF-4FCC-A09E-E6D311F25387}">
-  <dimension ref="B2:B20"/>
+  <dimension ref="B2:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -694,19 +694,24 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B18" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B19" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B20" s="6" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C24">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
